--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2547007.939258098</v>
+        <v>-2549093.190201787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2366970.744934246</v>
+        <v>2366970.744934245</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>174.1552958834841</v>
       </c>
       <c r="W2" t="n">
-        <v>227.9030768592324</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>113.3139985143129</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>166.2955468721006</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>49.55409844946683</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -908,55 +908,55 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>224.9875377629164</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18.07837557354546</v>
-      </c>
-      <c r="I5" t="n">
-        <v>206.9091621893709</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>263.2420339516666</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.22980417618466</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>173.2276483861306</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>159.8350691069749</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>161.6949723885182</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9566261359304</v>
+        <v>13.95662613593043</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>158.5799306236198</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.31144901718753</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>178.3455565326201</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2379639975001</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>156.1318223681768</v>
       </c>
     </row>
     <row r="9">
@@ -1215,10 +1215,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>6.667563140048513</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>122.147086958997</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,7 +1227,7 @@
         <v>136.6232840795164</v>
       </c>
       <c r="H9" t="n">
-        <v>105.2795089281863</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.6004172095449</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>68.60942328725321</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>213.4936757567855</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>104.2098404967981</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185831</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896896</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185877</v>
+        <v>33.35146980185815</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>101.4950386131009</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.77945773664963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>94.1648127494131</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>170.716476841487</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>127.9032618964199</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>97.12772045570746</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.28903486154951</v>
+        <v>152.2303518676585</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.04170803171127</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.3627240895143</v>
+        <v>82.36272408951402</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693248</v>
+        <v>170.3191816693245</v>
       </c>
       <c r="T28" t="n">
-        <v>193.945932744111</v>
+        <v>193.9459327441105</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842989</v>
+        <v>258.6357240842985</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095495</v>
+        <v>224.5360150095492</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223123</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747587</v>
+        <v>198.1080270747584</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.28903486154979</v>
+        <v>152.2303518676585</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.8323343322903</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.3627240895143</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693248</v>
+        <v>170.3191816693244</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441106</v>
+        <v>31.53500549523029</v>
       </c>
       <c r="U31" t="n">
-        <v>258.6357240842989</v>
+        <v>258.6357240842985</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095495</v>
+        <v>224.5360150095492</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223125</v>
+        <v>258.9213700223122</v>
       </c>
       <c r="X31" t="n">
-        <v>198.1080270747587</v>
+        <v>198.1080270747583</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378163</v>
+        <v>190.983025037816</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378956</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,10 +4037,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.9796753218251</v>
+        <v>299.789776127315</v>
       </c>
       <c r="C2" t="n">
-        <v>253.9796753218251</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="D2" t="n">
-        <v>253.9796753218251</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="E2" t="n">
-        <v>253.9796753218251</v>
+        <v>52.75671313626202</v>
       </c>
       <c r="F2" t="n">
-        <v>247.0341745726216</v>
+        <v>45.81121238705855</v>
       </c>
       <c r="G2" t="n">
-        <v>231.5917824341653</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="H2" t="n">
-        <v>231.5917824341653</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>30.36882024860223</v>
       </c>
       <c r="J2" t="n">
         <v>19.56501858889139</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="V2" t="n">
-        <v>978.2509294445697</v>
+        <v>793.8559021094209</v>
       </c>
       <c r="W2" t="n">
-        <v>748.0458013039309</v>
+        <v>546.8228391183679</v>
       </c>
       <c r="X2" t="n">
-        <v>501.012738312878</v>
+        <v>299.789776127315</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.9796753218251</v>
+        <v>299.789776127315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.7408911953536</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2878619142265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>158.2878619142265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>158.2878619142265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2878619142265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
         <v>19.56501858889139</v>
@@ -4437,22 +4437,22 @@
         <v>877.5769898880285</v>
       </c>
       <c r="T3" t="n">
-        <v>675.4225686792215</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="U3" t="n">
-        <v>447.1994755532454</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="V3" t="n">
-        <v>332.7408911953536</v>
+        <v>642.4248816562858</v>
       </c>
       <c r="W3" t="n">
-        <v>332.7408911953536</v>
+        <v>395.3918186652329</v>
       </c>
       <c r="X3" t="n">
-        <v>332.7408911953536</v>
+        <v>187.5403184597001</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.7408911953536</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4507,19 +4507,19 @@
         <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>156.0916735427112</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="R4" t="n">
-        <v>19.56501858889139</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="S4" t="n">
-        <v>19.56501858889139</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="T4" t="n">
-        <v>19.56501858889139</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="U4" t="n">
-        <v>19.56501858889139</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="V4" t="n">
         <v>19.56501858889139</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>521.1660470154206</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1660470154206</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="D5" t="n">
-        <v>521.1660470154206</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1660470154206</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="F5" t="n">
-        <v>514.2205462662172</v>
+        <v>248.3195018705944</v>
       </c>
       <c r="G5" t="n">
-        <v>248.3195018705944</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
         <v>21.05936271613333</v>
@@ -4604,13 +4604,13 @@
         <v>1052.968135806666</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806666</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X5" t="n">
-        <v>787.0670914110435</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.1660470154206</v>
+        <v>255.2650026197978</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1904780456128</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C6" t="n">
-        <v>111.1904780456128</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>111.1904780456128</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
         <v>21.05936271613333</v>
@@ -4668,28 +4668,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>782.4144152406835</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T6" t="n">
-        <v>782.4144152406835</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="U6" t="n">
-        <v>554.1940864828883</v>
+        <v>450.2741420565881</v>
       </c>
       <c r="V6" t="n">
-        <v>319.0419782511456</v>
+        <v>275.2967194443349</v>
       </c>
       <c r="W6" t="n">
-        <v>319.0419782511456</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X6" t="n">
-        <v>111.1904780456128</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.1904780456128</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="7">
@@ -4747,13 +4747,13 @@
         <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
         <v>21.05936271613333</v>
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.566795553818</v>
+        <v>815.0533234846364</v>
       </c>
       <c r="C8" t="n">
-        <v>791.604278613406</v>
+        <v>815.0533234846364</v>
       </c>
       <c r="D8" t="n">
-        <v>791.604278613406</v>
+        <v>456.7876248778859</v>
       </c>
       <c r="E8" t="n">
-        <v>791.604278613406</v>
+        <v>70.99937227964173</v>
       </c>
       <c r="F8" t="n">
-        <v>628.2760236755088</v>
+        <v>64.05387153043826</v>
       </c>
       <c r="G8" t="n">
-        <v>210.1380174775992</v>
+        <v>49.95626937293277</v>
       </c>
       <c r="H8" t="n">
-        <v>210.1380174775992</v>
+        <v>49.95626937293277</v>
       </c>
       <c r="I8" t="n">
         <v>49.95626937293277</v>
       </c>
       <c r="J8" t="n">
-        <v>151.2334983759267</v>
+        <v>151.2334983759265</v>
       </c>
       <c r="K8" t="n">
-        <v>423.7666154858236</v>
+        <v>423.7666154858234</v>
       </c>
       <c r="L8" t="n">
         <v>814.1446738295766</v>
@@ -4826,28 +4826,28 @@
         <v>2497.813468646638</v>
       </c>
       <c r="R8" t="n">
-        <v>2431.842308023216</v>
+        <v>2497.813468646638</v>
       </c>
       <c r="S8" t="n">
-        <v>2251.69528122259</v>
+        <v>2317.666441846012</v>
       </c>
       <c r="T8" t="n">
-        <v>2251.69528122259</v>
+        <v>2317.666441846012</v>
       </c>
       <c r="U8" t="n">
-        <v>2251.69528122259</v>
+        <v>2063.890720636416</v>
       </c>
       <c r="V8" t="n">
-        <v>1920.632393879019</v>
+        <v>1732.827833292845</v>
       </c>
       <c r="W8" t="n">
-        <v>1920.632393879019</v>
+        <v>1732.827833292845</v>
       </c>
       <c r="X8" t="n">
-        <v>1547.166635617939</v>
+        <v>1359.362075031765</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.166635617939</v>
+        <v>1201.653163548758</v>
       </c>
     </row>
     <row r="9">
@@ -4863,16 +4863,16 @@
         <v>606.8094501775146</v>
       </c>
       <c r="D9" t="n">
-        <v>600.0745379148393</v>
+        <v>457.8750405162633</v>
       </c>
       <c r="E9" t="n">
-        <v>440.8370829093839</v>
+        <v>334.4941445980845</v>
       </c>
       <c r="F9" t="n">
-        <v>294.3025249362688</v>
+        <v>187.9595866249695</v>
       </c>
       <c r="G9" t="n">
-        <v>156.299207684232</v>
+        <v>49.95626937293277</v>
       </c>
       <c r="H9" t="n">
         <v>49.95626937293277</v>
@@ -4884,7 +4884,7 @@
         <v>49.95626937293277</v>
       </c>
       <c r="K9" t="n">
-        <v>290.4526593779075</v>
+        <v>184.4479206206666</v>
       </c>
       <c r="L9" t="n">
         <v>569.2293923670893</v>
@@ -4981,28 +4981,28 @@
         <v>660.0467845406937</v>
       </c>
       <c r="Q10" t="n">
-        <v>624.086767157315</v>
+        <v>660.0467845406937</v>
       </c>
       <c r="R10" t="n">
-        <v>554.7843193924127</v>
+        <v>660.0467845406937</v>
       </c>
       <c r="S10" t="n">
-        <v>339.1341418603062</v>
+        <v>444.3966070085871</v>
       </c>
       <c r="T10" t="n">
-        <v>339.1341418603062</v>
+        <v>444.3966070085871</v>
       </c>
       <c r="U10" t="n">
-        <v>49.95626937293277</v>
+        <v>155.2187345212137</v>
       </c>
       <c r="V10" t="n">
-        <v>49.95626937293277</v>
+        <v>155.2187345212137</v>
       </c>
       <c r="W10" t="n">
-        <v>49.95626937293277</v>
+        <v>155.2187345212137</v>
       </c>
       <c r="X10" t="n">
-        <v>49.95626937293277</v>
+        <v>155.2187345212137</v>
       </c>
       <c r="Y10" t="n">
         <v>49.95626937293277</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5072,10 +5072,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5124,13 +5124,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
         <v>1797.533454227377</v>
@@ -5215,10 +5215,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,16 +5227,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324569</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954963</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028587</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,10 +5452,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
@@ -5464,16 +5464,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028587</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>199.7373324836202</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>199.7373324836202</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247861</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>898.792518248838</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013837</v>
+        <v>609.3753482118773</v>
       </c>
       <c r="X19" t="n">
-        <v>157.6003821033663</v>
+        <v>381.38579731386</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>381.38579731386</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5765,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141295</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028587</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247866</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383448</v>
+        <v>874.9271131227912</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324579</v>
+        <v>620.2426249169043</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169043</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184326</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184326</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141295</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1369.721056521115</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488389</v>
+        <v>1080.592417734673</v>
       </c>
       <c r="V25" t="n">
-        <v>644.108030042952</v>
+        <v>825.9079295287859</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>825.9079295287859</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>597.9183786307684</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>597.9183786307684</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6306,25 +6306,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141295</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>162.9157864418124</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553317</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310792</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733444</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716621</v>
+        <v>888.3664240716631</v>
       </c>
       <c r="N28" t="n">
         <v>1186.236145130346</v>
       </c>
       <c r="O28" t="n">
-        <v>1447.436735166878</v>
+        <v>1447.436735166879</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.362111803697</v>
+        <v>1651.362111803698</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.52116680699</v>
       </c>
       <c r="R28" t="n">
-        <v>1634.326496009499</v>
+        <v>1634.326496009501</v>
       </c>
       <c r="S28" t="n">
-        <v>1462.286918565737</v>
+        <v>1462.286918565739</v>
       </c>
       <c r="T28" t="n">
-        <v>1266.381935995928</v>
+        <v>1266.38193599593</v>
       </c>
       <c r="U28" t="n">
-        <v>1005.133729850172</v>
+        <v>1005.133729850174</v>
       </c>
       <c r="V28" t="n">
-        <v>778.32967428497</v>
+        <v>778.3296742849732</v>
       </c>
       <c r="W28" t="n">
-        <v>516.7929368886946</v>
+        <v>516.7929368886983</v>
       </c>
       <c r="X28" t="n">
-        <v>316.6838186313626</v>
+        <v>316.6838186313665</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.7716721285177</v>
+        <v>316.6838186313665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277035</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341677</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141295</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>217.2497524019933</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>217.2497524019933</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>217.2497524019933</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553318</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310786</v>
+        <v>314.4364122310793</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733445</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716622</v>
+        <v>888.3664240716635</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130347</v>
       </c>
       <c r="O31" t="n">
-        <v>1447.436735166878</v>
+        <v>1447.43673516688</v>
       </c>
       <c r="P31" t="n">
-        <v>1651.362111803697</v>
+        <v>1651.362111803699</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806991</v>
       </c>
       <c r="R31" t="n">
-        <v>1634.326496009499</v>
+        <v>1717.521166806991</v>
       </c>
       <c r="S31" t="n">
-        <v>1462.286918565737</v>
+        <v>1545.481589363229</v>
       </c>
       <c r="T31" t="n">
-        <v>1266.381935995928</v>
+        <v>1513.628048458956</v>
       </c>
       <c r="U31" t="n">
-        <v>1005.133729850172</v>
+        <v>1252.3798423132</v>
       </c>
       <c r="V31" t="n">
-        <v>778.3296742849702</v>
+        <v>1025.575786747998</v>
       </c>
       <c r="W31" t="n">
-        <v>516.7929368886948</v>
+        <v>764.0390493517234</v>
       </c>
       <c r="X31" t="n">
-        <v>316.6838186313628</v>
+        <v>563.9299310943918</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.771672128518</v>
+        <v>371.0177845915473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141295</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,25 +6871,25 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141295</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7175,7 +7175,7 @@
         <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7211,7 +7211,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141293</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,7 +7315,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,40 +7327,40 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,7 +7430,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7685,7 +7685,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141293</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,19 +7825,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8532,10 +8532,10 @@
         <v>58.79139484272928</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>157.3897433183959</v>
       </c>
       <c r="L9" t="n">
-        <v>263.7648516092765</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>349.7653003338567</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338556</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>349.7653003338568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338556</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338556</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338556</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338556</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>180.0237016735873</v>
       </c>
       <c r="N33" t="n">
-        <v>349.7653003338557</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338556</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.765300333856</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>93.88676507992562</v>
       </c>
       <c r="O42" t="n">
-        <v>349.765300333856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>349.765300333856</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871788</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>192.358185587179</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>47.12043440511146</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8051956154451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>192.3581855871779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>54.99317854755029</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>93.64429916196941</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>189.3952778808836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.9413170061093</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.6451927843494</v>
+        <v>74.6034847526378</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039339</v>
+        <v>121.0138447039336</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322904</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086528</v>
+        <v>117.8194197086525</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8919401490991</v>
+        <v>138.8919401490988</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3122000532577</v>
+        <v>121.3122000532574</v>
       </c>
       <c r="I28" t="n">
-        <v>82.8176171499935</v>
+        <v>82.81761714999323</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.983025037816</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.941317006109</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6451927843494</v>
+        <v>139.645192784349</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039339</v>
+        <v>121.0138447039335</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086528</v>
+        <v>117.8194197086524</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8919401490991</v>
+        <v>138.8919401490988</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532577</v>
+        <v>121.3122000532573</v>
       </c>
       <c r="I31" t="n">
-        <v>82.8176171499935</v>
+        <v>82.81761714999315</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.36272408951396</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.4109272488801</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86069.67419732148</v>
+        <v>86069.67419732182</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750026</v>
+        <v>4807.454491749968</v>
       </c>
       <c r="L3" t="n">
-        <v>123843.5469857402</v>
+        <v>123843.5469857398</v>
       </c>
       <c r="M3" t="n">
         <v>147219.8238432093</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142277</v>
+        <v>22081.30265142303</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230228</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230229</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230226</v>
-      </c>
       <c r="J4" t="n">
-        <v>38385.85680940058</v>
+        <v>38385.85680940067</v>
       </c>
       <c r="K4" t="n">
-        <v>38385.85680940058</v>
+        <v>38385.85680940069</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362273</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362274</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="O4" t="n">
         <v>51722.3327936228</v>
       </c>
       <c r="P4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362281</v>
       </c>
     </row>
     <row r="5">
@@ -26485,22 +26485,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>94307.76723946971</v>
+        <v>94307.76723946974</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.76723946971</v>
+        <v>94307.76723946974</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26528,37 +26528,37 @@
         <v>-648372.0881876898</v>
       </c>
       <c r="E6" t="n">
-        <v>-695794.9662087327</v>
+        <v>-695892.4253347048</v>
       </c>
       <c r="F6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.330626991</v>
       </c>
       <c r="G6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="H6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="I6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="J6" t="n">
-        <v>-218763.2982461918</v>
+        <v>-218821.2746781455</v>
       </c>
       <c r="K6" t="n">
-        <v>-137501.0785406203</v>
+        <v>-137559.0549725736</v>
       </c>
       <c r="L6" t="n">
-        <v>-273280.9855993883</v>
+        <v>-273280.985599388</v>
       </c>
       <c r="M6" t="n">
-        <v>-296657.2624568574</v>
+        <v>-296657.2624568575</v>
       </c>
       <c r="N6" t="n">
         <v>-149437.4386136482</v>
       </c>
       <c r="O6" t="n">
-        <v>-171518.741265071</v>
+        <v>-171518.7412650712</v>
       </c>
       <c r="P6" t="n">
         <v>-149437.4386136482</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,10 +26817,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427881</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536218</v>
+        <v>40.53026181536183</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427846</v>
+        <v>27.60162831427878</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>361.211333209993</v>
+        <v>361.2113332099929</v>
       </c>
       <c r="E4" t="n">
         <v>590.7602760919137</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611423</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052395</v>
       </c>
       <c r="L4" t="n">
-        <v>361.2113332099933</v>
+        <v>361.2113332099931</v>
       </c>
       <c r="M4" t="n">
         <v>590.7602760919137</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427881</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>361.211333209993</v>
+        <v>361.2113332099929</v>
       </c>
       <c r="M4" t="n">
         <v>590.7602760919137</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098651</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,10 +27397,10 @@
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>148.9413660216818</v>
@@ -27436,16 +27436,16 @@
         <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>153.5969625866508</v>
       </c>
       <c r="W2" t="n">
-        <v>121.3378918581807</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
         <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
         <v>112.1591249337519</v>
@@ -27509,22 +27509,22 @@
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>119.4865886351124</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777182</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>39.38714890520379</v>
       </c>
     </row>
     <row r="4">
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.83411894223252</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
         <v>223.9011423785076</v>
@@ -27594,7 +27594,7 @@
         <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>202.5835448743612</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521648</v>
+        <v>190.222683640915</v>
       </c>
       <c r="H5" t="n">
-        <v>320.4489459173329</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>4.097100052852153</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
         <v>106.4890667268024</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>68.41527627921629</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>59.5729387632947</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27819,7 +27819,7 @@
         <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>15.59235192972142</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27828,7 +27828,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381041</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>245.1810733531932</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>325.6889389534879</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>158.5799306236198</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.31144901718753</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.2032470016631</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2379639975001</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>230.1061162878768</v>
       </c>
     </row>
     <row r="9">
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140.7775024245902</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>35.49799349640395</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>105.2795089281863</v>
       </c>
       <c r="I9" t="n">
         <v>64.59913413650358</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>35.6004172095449</v>
       </c>
       <c r="R10" t="n">
-        <v>81.53406010984122</v>
+        <v>150.1434833970944</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>114.3748128552967</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427876</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427847</v>
+        <v>27.60162831427882</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>242.9256464696714</v>
+        <v>135.8501527754887</v>
       </c>
       <c r="L9" t="n">
-        <v>281.5926595850322</v>
+        <v>388.6681532792148</v>
       </c>
       <c r="M9" t="n">
         <v>506.0616668675277</v>
@@ -35492,7 +35492,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>599.023005289881</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35501,7 +35501,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749639</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>682.9598737318697</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749639</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>300.9801800114506</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749639</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>490.7027479140739</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749639</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984403</v>
+        <v>40.10939847984429</v>
       </c>
       <c r="K28" t="n">
-        <v>179.3040568441891</v>
+        <v>179.3040568441893</v>
       </c>
       <c r="L28" t="n">
-        <v>277.8158151942071</v>
+        <v>277.8158151942073</v>
       </c>
       <c r="M28" t="n">
-        <v>301.911469493251</v>
+        <v>301.9114694932513</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198824</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348814</v>
+        <v>263.8389798348816</v>
       </c>
       <c r="P28" t="n">
-        <v>205.9852289260793</v>
+        <v>205.9852289260795</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615326</v>
+        <v>66.82732828615352</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749639</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984403</v>
+        <v>40.10939847984436</v>
       </c>
       <c r="K31" t="n">
-        <v>179.3040568441891</v>
+        <v>179.3040568441894</v>
       </c>
       <c r="L31" t="n">
-        <v>277.8158151942071</v>
+        <v>277.8158151942073</v>
       </c>
       <c r="M31" t="n">
-        <v>301.911469493251</v>
+        <v>301.9114694932513</v>
       </c>
       <c r="N31" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198824</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348814</v>
+        <v>263.8389798348817</v>
       </c>
       <c r="P31" t="n">
-        <v>205.9852289260793</v>
+        <v>205.9852289260796</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615326</v>
+        <v>66.82732828615359</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>490.4480787240536</v>
       </c>
       <c r="N33" t="n">
-        <v>682.9598737318688</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749639</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749643</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>427.0813384779386</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749643</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415071</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>632.1290025749643</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
